--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il34-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Il34</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H2">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I2">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J2">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N2">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P2">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q2">
-        <v>0.09316707012555557</v>
+        <v>0.033414548752</v>
       </c>
       <c r="R2">
-        <v>0.83850363113</v>
+        <v>0.300730938768</v>
       </c>
       <c r="S2">
-        <v>0.0008373689272967143</v>
+        <v>0.0001910037851270629</v>
       </c>
       <c r="T2">
-        <v>0.000837368927296714</v>
+        <v>0.0001910037851270629</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H3">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I3">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J3">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +620,22 @@
         <v>0.070426</v>
       </c>
       <c r="O3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P3">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q3">
-        <v>0.03368007638355556</v>
+        <v>0.034548741968</v>
       </c>
       <c r="R3">
-        <v>0.303120687452</v>
+        <v>0.310938677712</v>
       </c>
       <c r="S3">
-        <v>0.000302710489817511</v>
+        <v>0.0001974870448271799</v>
       </c>
       <c r="T3">
-        <v>0.0003027104898175109</v>
+        <v>0.0001974870448271799</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.434700666666667</v>
+        <v>1.471704</v>
       </c>
       <c r="H4">
-        <v>4.304102</v>
+        <v>4.415112</v>
       </c>
       <c r="I4">
-        <v>0.09362444392770469</v>
+        <v>0.08657490103749592</v>
       </c>
       <c r="J4">
-        <v>0.09362444392770468</v>
+        <v>0.0865749010374959</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N4">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P4">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q4">
-        <v>10.28996538203578</v>
+        <v>15.077606989432</v>
       </c>
       <c r="R4">
-        <v>92.60968843832201</v>
+        <v>135.698462904888</v>
       </c>
       <c r="S4">
-        <v>0.09248436451059046</v>
+        <v>0.08618641020754168</v>
       </c>
       <c r="T4">
-        <v>0.09248436451059044</v>
+        <v>0.08618641020754167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -729,10 +726,10 @@
         <v>14.621358</v>
       </c>
       <c r="I5">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J5">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N5">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P5">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q5">
-        <v>0.3164955398633333</v>
+        <v>0.1106576865346667</v>
       </c>
       <c r="R5">
-        <v>2.84845985877</v>
+        <v>0.9959191788120002</v>
       </c>
       <c r="S5">
-        <v>0.002844605184561432</v>
+        <v>0.0006325399495409998</v>
       </c>
       <c r="T5">
-        <v>0.002844605184561433</v>
+        <v>0.0006325399495409998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +767,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -791,10 +788,10 @@
         <v>14.621358</v>
       </c>
       <c r="I6">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J6">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,10 +806,10 @@
         <v>0.070426</v>
       </c>
       <c r="O6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P6">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q6">
         <v>0.1144137509453333</v>
@@ -821,10 +818,10 @@
         <v>1.029723758508</v>
       </c>
       <c r="S6">
-        <v>0.001028330286312262</v>
+        <v>0.000654010313391879</v>
       </c>
       <c r="T6">
-        <v>0.001028330286312263</v>
+        <v>0.000654010313391879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +829,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -853,10 +850,10 @@
         <v>14.621358</v>
       </c>
       <c r="I7">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="J7">
-        <v>0.318049273046479</v>
+        <v>0.2867067974456365</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N7">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P7">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q7">
-        <v>34.95578581974867</v>
+        <v>49.93193594540467</v>
       </c>
       <c r="R7">
-        <v>314.602072377738</v>
+        <v>449.387423508642</v>
       </c>
       <c r="S7">
-        <v>0.3141763375756053</v>
+        <v>0.2854202471827036</v>
       </c>
       <c r="T7">
-        <v>0.3141763375756053</v>
+        <v>0.2854202471827036</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +891,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -909,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H8">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I8">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J8">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.06493833333333333</v>
+        <v>0.02270466666666667</v>
       </c>
       <c r="N8">
-        <v>0.194815</v>
+        <v>0.06811400000000001</v>
       </c>
       <c r="O8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="P8">
-        <v>0.008943913492755345</v>
+        <v>0.002206225855740089</v>
       </c>
       <c r="Q8">
-        <v>0.5813786119</v>
+        <v>0.2418889191768889</v>
       </c>
       <c r="R8">
-        <v>5.2324075071</v>
+        <v>2.177000272592001</v>
       </c>
       <c r="S8">
-        <v>0.005225326759163799</v>
+        <v>0.001382682121072026</v>
       </c>
       <c r="T8">
-        <v>0.005225326759163799</v>
+        <v>0.001382682121072026</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -971,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H9">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I9">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J9">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,22 +992,22 @@
         <v>0.070426</v>
       </c>
       <c r="O9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="P9">
-        <v>0.00323324205857243</v>
+        <v>0.002281111990432972</v>
       </c>
       <c r="Q9">
-        <v>0.21016949476</v>
+        <v>0.2500993778364445</v>
       </c>
       <c r="R9">
-        <v>1.89152545284</v>
+        <v>2.250894400528</v>
       </c>
       <c r="S9">
-        <v>0.001888965748740445</v>
+        <v>0.001429614632213913</v>
       </c>
       <c r="T9">
-        <v>0.001888965748740445</v>
+        <v>0.001429614632213913</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1015,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1033,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.952779999999999</v>
+        <v>10.65370933333333</v>
       </c>
       <c r="H10">
-        <v>26.85834</v>
+        <v>31.961128</v>
       </c>
       <c r="I10">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168676</v>
       </c>
       <c r="J10">
-        <v>0.5842327034352874</v>
+        <v>0.6267183015168675</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,214 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.172203666666667</v>
+        <v>10.24499966666667</v>
       </c>
       <c r="N10">
-        <v>21.516611</v>
+        <v>30.734999</v>
       </c>
       <c r="O10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="P10">
-        <v>0.9878228444486722</v>
+        <v>0.9955126621538269</v>
       </c>
       <c r="Q10">
-        <v>64.21116154286</v>
+        <v>109.1472485687636</v>
       </c>
       <c r="R10">
-        <v>577.90045388574</v>
+        <v>982.3252371188721</v>
       </c>
       <c r="S10">
-        <v>0.5771184109273831</v>
+        <v>0.6239060047635816</v>
       </c>
       <c r="T10">
-        <v>0.5771184109273831</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H11">
-        <v>0.18819</v>
-      </c>
-      <c r="I11">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J11">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M11">
-        <v>0.06493833333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.194815</v>
-      </c>
-      <c r="O11">
-        <v>0.008943913492755345</v>
-      </c>
-      <c r="P11">
-        <v>0.008943913492755345</v>
-      </c>
-      <c r="Q11">
-        <v>0.00407358165</v>
-      </c>
-      <c r="R11">
-        <v>0.03666223485</v>
-      </c>
-      <c r="S11">
-        <v>3.661262173339959E-05</v>
-      </c>
-      <c r="T11">
-        <v>3.661262173339959E-05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H12">
-        <v>0.18819</v>
-      </c>
-      <c r="I12">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J12">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.02347533333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.070426</v>
-      </c>
-      <c r="O12">
-        <v>0.00323324205857243</v>
-      </c>
-      <c r="P12">
-        <v>0.00323324205857243</v>
-      </c>
-      <c r="Q12">
-        <v>0.00147260766</v>
-      </c>
-      <c r="R12">
-        <v>0.01325346894</v>
-      </c>
-      <c r="S12">
-        <v>1.323553370221184E-05</v>
-      </c>
-      <c r="T12">
-        <v>1.323553370221184E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06272999999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.18819</v>
-      </c>
-      <c r="I13">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="J13">
-        <v>0.004093579590528929</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>7.172203666666667</v>
-      </c>
-      <c r="N13">
-        <v>21.516611</v>
-      </c>
-      <c r="O13">
-        <v>0.9878228444486722</v>
-      </c>
-      <c r="P13">
-        <v>0.9878228444486722</v>
-      </c>
-      <c r="Q13">
-        <v>0.44991233601</v>
-      </c>
-      <c r="R13">
-        <v>4.04921102409</v>
-      </c>
-      <c r="S13">
-        <v>0.004043731435093317</v>
-      </c>
-      <c r="T13">
-        <v>0.004043731435093317</v>
+        <v>0.6239060047635815</v>
       </c>
     </row>
   </sheetData>
